--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>S.No</t>
   </si>
@@ -36,21 +36,12 @@
     <t>ExpectedBehaviour</t>
   </si>
   <si>
-    <t>PostCondition</t>
-  </si>
-  <si>
     <t>Requirement ID</t>
   </si>
   <si>
     <t>PostCut_001</t>
   </si>
   <si>
-    <t>Verify media manifest file doesn't have the segments entry for the chopped out video&amp;audio</t>
-  </si>
-  <si>
-    <t>Verify media manifest file have "EXT-X-DISCONTINUITY" tag during chopped out video&amp;audio</t>
-  </si>
-  <si>
     <t>Verify the HLS content with mediastreamvalidator tool</t>
   </si>
   <si>
@@ -70,13 +61,104 @@
   </si>
   <si>
     <t>PostCut_005</t>
+  </si>
+  <si>
+    <t>Verify media manifest file doesn't have the segments entry for the chopped out duration</t>
+  </si>
+  <si>
+    <t>Verify media manifest file have "EXT-X-DISCONTINUITY" tag during chopped out duration</t>
+  </si>
+  <si>
+    <t>Verify Subtitle manifest file doesn't have the segments entry for the chopped out duration</t>
+  </si>
+  <si>
+    <t>Verify Subtitle manifest file have "EXT-X-DISCONTINUITY" tag during chopped out duration</t>
+  </si>
+  <si>
+    <t>Test data(Precut and Postcut) should be available</t>
+  </si>
+  <si>
+    <t>Test data(Postcut) should be available</t>
+  </si>
+  <si>
+    <t>1. Download the media manifest file from webserver
+2. check the segment entry on media manifest file</t>
+  </si>
+  <si>
+    <t>1. Download the subtitle manifest file from webserver
+2. check the segment entry on subtitle manifest file</t>
+  </si>
+  <si>
+    <t>1. Download the media manifest file from webserver
+2. check "EXT-X-DISCONTINUITY" TAG present on correct place</t>
+  </si>
+  <si>
+    <t>1. Download the subtitle manifest file from webserver
+2. check "EXT-X-DISCONTINUITY" TAG present on correct place</t>
+  </si>
+  <si>
+    <t>1. Test the HLS Pre cut and Post cut content with media stream validator tool
+2. Verify the report there should not be any new issue introduced due to cut</t>
+  </si>
+  <si>
+    <t>1. Download the media and subtitle manifest file from webserver for bothe precut and post cut content
+2. check the duration of segments on both precut and post cut content
+3. Compare the total duration</t>
+  </si>
+  <si>
+    <t>Cross player compatibility testing</t>
+  </si>
+  <si>
+    <t>1. Verify the HLS playback on below browsers/player
+a. Safari browser on MAC
+b. QuickTime Player on MAC
+c. Edge browser on Windows 10</t>
+  </si>
+  <si>
+    <t>TEST CASES TO VALIDATE THE POSTCUT VOD CONTENT</t>
+  </si>
+  <si>
+    <t>PostCut_006</t>
+  </si>
+  <si>
+    <t>PostCut_007</t>
+  </si>
+  <si>
+    <t>PostCut_008</t>
+  </si>
+  <si>
+    <t>#EXTINF, #EXT-X-BITRATE tags and segment url should be present on media manifest file for the chopped out duration</t>
+  </si>
+  <si>
+    <t>"EXT-X-DISCONTINUITY" TAG should be present when the sequence of segment file name changes(means discontinuity happening place)</t>
+  </si>
+  <si>
+    <t>#EXTINF tags and segment url should be present on media manifest file for the chopped out duration</t>
+  </si>
+  <si>
+    <t>The report should be same before and after cut. i.e., Post cut should not introduce any new error</t>
+  </si>
+  <si>
+    <t>1. Download the media and subtitle manifest file from webserver
+2. check the duration segments before and after "EXT-X-DISCONTINUITY" tag for both media and subtitle manifest file</t>
+  </si>
+  <si>
+    <t>1. Segment duration before the EXT-X-DISCONTINUITY should be same on both media and subtitle manifest
+2. Media and subtitle Segment start time should be same after the EXT-X-DISCONTINUITY tag(Can be verified by comparing pre-cut manifest file)</t>
+  </si>
+  <si>
+    <t>Total duration should be reduced on post-cut content as per the choppped out duration</t>
+  </si>
+  <si>
+    <t>1. Playback should happen properly
+2. AV should be in sync with subtitle during chopped out duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +166,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,15 +209,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,106 +535,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="60">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="60">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="60">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="105">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="75">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
